--- a/biology/Zoologie/Anancus/Anancus.xlsx
+++ b/biology/Zoologie/Anancus/Anancus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anancus est un genre éteint de la famille des Gomphothériidés, proche des éléphants actuels. Il vivait du Miocène supérieur au Pléistocène inférieur, il y a 3 à 1,5 million d’années. Des fossiles appartenant à ce genre ont été retrouvés en Afrique, en Europe et en Asie.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anancus mesurait à peu près trois mètres de haut et ressemblait beaucoup à l’éléphant moderne. Il avait deux défenses alors que les Gomphothères en avaient quatre. Anancus faisait partie du groupe des Proboscidiens comme les mastodontes, caractérisé par une dentition plus simple que celle des éléphants actuels et des mammouths. Leurs molaires ressemblaient plus à celles du porc et du tapir qu’à celles des éléphants actuels, n’étant pas composées de lames. Anancus avait en outre une dentition différente et de plus petites pattes que l’éléphant actuel. Ses défenses, peu incurvées et beaucoup plus longues, mesuraient jusqu’à 4 mètres. Ils pouvaient s'en servir pour déterrer des tubercules ou des racines affleurant le sol, ou encore comme armes.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anancus semble avoir vécu dans les forêts, se nourrissant de graines, de fruits, d’arbres, d’arbustes, de tubercules ou de racines.
 </t>
@@ -573,7 +589,9 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne pouvant s’adapter aux nouveaux milieux lorsque les forêts ont cédé la place à la prairie, il y a 1,5 million d’années, Anancus laisse place à ses proches parents les éléphantidés.
 </t>
@@ -604,9 +622,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007)[1], les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012[2], et les caractéristiques génétiques selon Meyer et al. 2017[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007), les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012, et les caractéristiques génétiques selon Meyer et al. 2017 :
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anancus alexeevae
